--- a/culwebapp/app/assets/offlineorder.xlsx
+++ b/culwebapp/app/assets/offlineorder.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tliu133/Desktop/zm/cul-web/culwebapp/app/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lisa/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>ReferenceOrderNumber</t>
   </si>
@@ -117,13 +117,34 @@
   </si>
   <si>
     <t>Warehouse</t>
+  </si>
+  <si>
+    <t>pack_takeoutInvoice</t>
+  </si>
+  <si>
+    <t>pack_urgentProcess</t>
+  </si>
+  <si>
+    <t>pack_steadyInner</t>
+  </si>
+  <si>
+    <t>pack_replaceCarton</t>
+  </si>
+  <si>
+    <t>pack_removeInner</t>
+  </si>
+  <si>
+    <t>pack_addCarton</t>
+  </si>
+  <si>
+    <t>pack_checkCount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -158,6 +179,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -182,7 +224,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
@@ -195,10 +237,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -471,16 +524,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD5"/>
+  <dimension ref="A1:AK35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="AJ2" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.33203125" style="1" customWidth="1"/>
-    <col min="2" max="5" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="3" max="5" width="17.33203125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="12.5" customWidth="1"/>
     <col min="9" max="9" width="20.6640625" customWidth="1"/>
@@ -492,12 +546,18 @@
     <col min="20" max="20" width="23.6640625" customWidth="1"/>
     <col min="24" max="24" width="18.5" customWidth="1"/>
     <col min="25" max="25" width="14.6640625" customWidth="1"/>
-    <col min="26" max="26" width="21.1640625" customWidth="1"/>
-    <col min="27" max="27" width="21.6640625" customWidth="1"/>
-    <col min="30" max="30" width="23.5" customWidth="1"/>
+    <col min="26" max="26" width="17.6640625" customWidth="1"/>
+    <col min="27" max="27" width="18.33203125" customWidth="1"/>
+    <col min="28" max="28" width="11" customWidth="1"/>
+    <col min="30" max="30" width="19" customWidth="1"/>
+    <col min="31" max="31" width="17.6640625" customWidth="1"/>
+    <col min="32" max="32" width="17.1640625" customWidth="1"/>
+    <col min="33" max="33" width="16.33203125" customWidth="1"/>
+    <col min="34" max="34" width="16.6640625" customWidth="1"/>
+    <col min="35" max="35" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -588,37 +648,50 @@
       <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="7"/>
+      <c r="AE1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="E2" s="13"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-    </row>
-    <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="S2" s="15"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="13"/>
+      <c r="AA2" s="16"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+    </row>
+    <row r="3" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -645,8 +718,15 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
-    </row>
-    <row r="4" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+    </row>
+    <row r="4" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -673,8 +753,9 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-    </row>
-    <row r="5" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE4" s="2"/>
+    </row>
+    <row r="5" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -701,16 +782,110 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
+      <c r="AE5" s="2"/>
+    </row>
+    <row r="6" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE6" s="2"/>
+    </row>
+    <row r="7" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE7" s="2"/>
+    </row>
+    <row r="8" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE8" s="2"/>
+    </row>
+    <row r="9" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE9" s="2"/>
+    </row>
+    <row r="10" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE10" s="2"/>
+    </row>
+    <row r="11" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE11" s="2"/>
+    </row>
+    <row r="12" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE12" s="2"/>
+    </row>
+    <row r="13" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE13" s="2"/>
+    </row>
+    <row r="14" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE14" s="2"/>
+    </row>
+    <row r="15" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE15" s="2"/>
+    </row>
+    <row r="16" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE16" s="2"/>
+    </row>
+    <row r="17" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE17" s="2"/>
+    </row>
+    <row r="18" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE18" s="2"/>
+    </row>
+    <row r="19" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE19" s="2"/>
+    </row>
+    <row r="20" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE20" s="2"/>
+    </row>
+    <row r="21" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE21" s="2"/>
+    </row>
+    <row r="22" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE22" s="2"/>
+    </row>
+    <row r="23" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE23" s="2"/>
+    </row>
+    <row r="24" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE24" s="2"/>
+    </row>
+    <row r="25" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE25" s="2"/>
+    </row>
+    <row r="26" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE26" s="2"/>
+    </row>
+    <row r="27" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE27" s="2"/>
+    </row>
+    <row r="28" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE28" s="2"/>
+    </row>
+    <row r="29" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE29" s="2"/>
+    </row>
+    <row r="30" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE30" s="2"/>
+    </row>
+    <row r="31" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE31" s="2"/>
+    </row>
+    <row r="32" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE32" s="2"/>
+    </row>
+    <row r="33" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE33" s="2"/>
+    </row>
+    <row r="34" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE34" s="2"/>
+    </row>
+    <row r="35" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE35" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1236">
       <formula1>"Shoes,Clothes,Bags"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD1236">
       <formula1>"美国加州(CA)仓库,美国特拉华(DE)仓库,美国俄勒冈(OR)仓库"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AE1:AK1048576">
+      <formula1>"0,1"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/culwebapp/app/assets/offlineorder.xlsx
+++ b/culwebapp/app/assets/offlineorder.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -116,35 +116,36 @@
     <t>XTProductType</t>
   </si>
   <si>
+    <t>pack_takeoutInvoice</t>
+  </si>
+  <si>
+    <t>pack_urgentProcess</t>
+  </si>
+  <si>
+    <t>pack_steadyInner</t>
+  </si>
+  <si>
+    <t>pack_replaceCarton</t>
+  </si>
+  <si>
+    <t>pack_removeInner</t>
+  </si>
+  <si>
+    <t>pack_addCarton</t>
+  </si>
+  <si>
+    <t>pack_checkCount</t>
+  </si>
+  <si>
     <t>Warehouse</t>
-  </si>
-  <si>
-    <t>pack_takeoutInvoice</t>
-  </si>
-  <si>
-    <t>pack_urgentProcess</t>
-  </si>
-  <si>
-    <t>pack_steadyInner</t>
-  </si>
-  <si>
-    <t>pack_replaceCarton</t>
-  </si>
-  <si>
-    <t>pack_removeInner</t>
-  </si>
-  <si>
-    <t>pack_addCarton</t>
-  </si>
-  <si>
-    <t>pack_checkCount</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -200,6 +201,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -224,7 +231,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
@@ -248,6 +255,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1"/>
@@ -526,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="AJ2" sqref="AJ2"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -618,7 +626,7 @@
       <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="2" t="s">
@@ -646,28 +654,28 @@
         <v>28</v>
       </c>
       <c r="AD1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="17" t="s">
         <v>35</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -883,7 +891,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD1236">
       <formula1>"美国加州(CA)仓库,美国特拉华(DE)仓库,美国俄勒冈(OR)仓库"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AE1:AK1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AE2:AE1048576 AF2:AF1048576 AG2:AG1048576 AH2:AH1048576 AI2:AI1048576 AJ2:AJ1048576 AK2:AK1048576">
       <formula1>"0,1"</formula1>
     </dataValidation>
   </dataValidations>
